--- a/Эксперементы/Таблица по заказчикам (1).xlsx
+++ b/Эксперементы/Таблица по заказчикам (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Project4\Documents\GitHub\TenderSense\Эксперементы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83A7107-6D67-4895-ABCE-B7B8183C55C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5B3227-F5F1-4A8B-8A0E-D73E393A44E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32835" yWindow="0" windowWidth="19755" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>Заказчик</t>
   </si>
@@ -279,6 +279,69 @@
   </si>
   <si>
     <t>только индентификатор заказчика</t>
+  </si>
+  <si>
+    <t>customerIdOrg=42575498:ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ+&amp;quot;ГОРОДСКАЯ+КЛИНИЧЕСКАЯ+БОЛЬНИЦА+ИМЕНИ+М.П.+КОНЧАЛОВСКОГО+ДЕПАРТАМЕНТА+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ&amp;quot;zZ03732000631zZ697437zZ141126zZ7735069192zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=205369663:ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+ГОРОДА+МОСКВЫ+&amp;quot;ДИРЕКЦИЯ+РАЗВИТИЯ+ОБЪЕКТОВ+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ&amp;quot;zZ03732005979zZ1489623zZ71179zZ7704076129zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=138013019:ГОСУДАРСТВЕННОЕ+УНИТАРНОЕ+ПРЕДПРИЯТИЕ+ГОРОДА+МОСКВЫ+&amp;quot;М.ПРОГРЕСС&amp;quot;zZ05735000008zZ2198933zZ9401zZ7718016306zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=285587296:ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ+&amp;quot;МОСКОВСКИЙ+МНОГОПРОФИЛЬНЫЙ+КЛИНИЧЕСКИЙ+ЦЕНТР+&amp;quot;КОММУНАРКА&amp;quot;+ДЕПАРТАМЕНТА+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ&amp;quot;zZ03732000878zZ658741zZ315611zZ7716099554zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=52819924:ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ+&amp;quot;ГОРОДСКАЯ+ПОЛИКЛИНИКА+№+67+ДЕПАРТАМЕНТА+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ&amp;quot;zZ03732005855zZ1430904zZ161399zZ7726318029zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=19101715:ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ+&amp;quot;ГОРОДСКАЯ+ПОЛИКЛИНИКА+№+209+ДЕПАРТАМЕНТА+ЗДРАВООХРАНЕНИЯ+ГОРОДА+МОСКВЫ&amp;quot;zZ03732000900zZ659237zZ119426zZ7729198714zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=165396798:ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+ЗДРАВООХРАНЕНИЯ+МОСКОВСКОЙ+ОБЛАСТИ+&amp;quot;ВИДНОВСКАЯ+КЛИНИЧЕСКАЯ+БОЛЬНИЦА&amp;quot;zZ03483004126zZ805166zZ488385zZ5003027994zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=210068:МУНИЦИПАЛЬНОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+&amp;quot;ГОРОДСКОЙ+ЦЕНТР+СПОРТА&amp;quot;+ЛЕНИНСКОГО+ГОРОДСКОГО+ОКРУГА+МОСКОВСКОЙ+ОБЛАСТИzZ03483003860zZ791583zZzZ5003084199zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=59736:МУНИЦИПАЛЬНОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+&amp;quot;ДВОРЕЦ+СПОРТА+ВИДНОЕ&amp;quot;zZ03483000200zZ626945zZzZ5003062727zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=166631845:ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+ЗДРАВООХРАНЕНИЯ+МОСКОВСКОЙ+ОБЛАСТИ+&amp;quot;ВИДНОВСКИЙ+ПЕРИНАТАЛЬНЫЙ+ЦЕНТР&amp;quot;zZ03483002440zZ758462zZ489026zZ5003042382zZ</t>
+  </si>
+  <si>
+    <t>https://zakupki.gov.ru/epz/order/extendedsearch/results.html?searchString=5003057124&amp;morphology=on&amp;sortBy=UPDATE_DATE&amp;pageNumber=1&amp;sortDirection=false&amp;recordsPerPage=_10&amp;showLotsInfoHidden=false&amp;fz44=on&amp;fz223=on&amp;ppRf615=on&amp;af=on&amp;priceContractAdvantages44IdNameHidden={}&amp;priceContractAdvantages94IdNameHidden={}&amp;currencyIdGeneral=-1&amp;customerIdOrg=57681053:АДМИНИСТРАЦИЯ+ПОСЕЛЕНИЯ+ДЕСЕНОВСКОЕzZ01483000110zZ651702zZ179661zZ5003057124zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=182556478:АДМИНИСТРАЦИЯ+ЛЕНИНСКОГО+ГОРОДСКОГО+ОКРУГА+МОСКОВСКОЙ+ОБЛАСТИzZ01486000158zZ2261509zZzZ5003138447zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=286836:МУНИЦИПАЛЬНОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+ЛЕНИНСКОГО+ГОРОДСКОГО+ОКРУГА+МОСКОВСКОЙ+ОБЛАСТИ+&amp;quot;ПАРК+КУЛЬТУРЫ+И+ОТДЫХА+Г.+ВИДНОЕ&amp;quot;zZ03483006157zZ2071082zZzZ5003002380zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=310000676:ГОСУДАРСТВЕННОЕ+УНИТАРНОЕ+ПРЕДПРИЯТИЕ+ГОРОДА+МОСКВЫ+&amp;quot;МОСГОРТРАНС&amp;quot;zZ05732000024zZ1355692zZ913zZ7705002602zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=19050534:ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+УЧРЕЖДЕНИЕ+МОСКОВСКОЙ+ОБЛАСТИ+&amp;quot;МОСАВТОДОР&amp;quot;zZ03482000497zZ794956zZ118714zZ5000001525zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=48070769:АДМИНИСТРАЦИЯ+ГОРОДСКОГО+ОКРУГА+ЩЕРБИНКАzZ01483000418zZ764485zZ150280zZ5051002044zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=129560203:АДМИНИСТРАЦИЯ+ПОСЕЛЕНИЯ+СОСЕНСКОЕzZ01483000083zZ651103zZ345865zZ5003057029zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=252291468:ФЕДЕРАЛЬНОЕ+ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+ОБРАЗОВАТЕЛЬНОЕ+УЧРЕЖДЕНИЕ+ВЫСШЕГО+ОБРАЗОВАНИЯ+&amp;quot;РОССИЙСКИЙ+ИНСТИТУТ+ТЕАТРАЛЬНОГО+ИСКУССТВА+-+ГИТИС&amp;quot;zZ03731001149zZ770833zZ590812zZ7703022730zZ</t>
+  </si>
+  <si>
+    <t>customerIdOrg=13784:ФЕДЕРАЛЬНОЕ+ГОСУДАРСТВЕННОЕ+БЮДЖЕТНОЕ+ОБРАЗОВАТЕЛЬНОЕ+УЧРЕЖДЕНИЕ+ВЫСШЕГО+ОБРАЗОВАНИЯ+&amp;quot;МОСКОВСКИЙ+ГОСУДАРСТВЕННЫЙ+ТЕХНОЛОГИЧЕСКИЙ+УНИВЕРСИТЕТ+&amp;quot;СТАНКИН&amp;quot;zZ03731000199zZ704601zZ63134zZ7707003506zZ</t>
+  </si>
+  <si>
+    <t>Столбец8</t>
+  </si>
+  <si>
+    <t>расшифровано</t>
   </si>
 </sst>
 </file>
@@ -612,7 +675,26 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -850,23 +932,23 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -915,16 +997,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEF7607C-5EB0-4D93-AF71-0D48CFE53808}" name="Таблица1" displayName="Таблица1" ref="A1:G21" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="A1:G21" xr:uid="{FEF7607C-5EB0-4D93-AF71-0D48CFE53808}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7DA02C96-5510-4F75-B67B-994E1DAAE7E2}" name="Столбец1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{211672B0-7CE3-416E-A996-39D8A736D7B6}" name="Столбец2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{22DDCC0B-21E5-4FA0-B4F5-371698B5A5EC}" name="Столбец3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3E866F80-DDB8-4B0D-8F64-B44D7E8B6781}" name="Столбец4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{569B4022-F2CE-4058-B35A-3D089B2FC6FC}" name="Столбец5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{3F76E758-C23A-44AD-BFC1-D189CF7FE46F}" name="Столбец6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{008F228A-6891-45AB-9EEB-2CBAB788EDB2}" name="Столбец7" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEF7607C-5EB0-4D93-AF71-0D48CFE53808}" name="Таблица1" displayName="Таблица1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:H21" xr:uid="{FEF7607C-5EB0-4D93-AF71-0D48CFE53808}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7DA02C96-5510-4F75-B67B-994E1DAAE7E2}" name="Столбец1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{211672B0-7CE3-416E-A996-39D8A736D7B6}" name="Столбец2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{22DDCC0B-21E5-4FA0-B4F5-371698B5A5EC}" name="Столбец3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3E866F80-DDB8-4B0D-8F64-B44D7E8B6781}" name="Столбец4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{569B4022-F2CE-4058-B35A-3D089B2FC6FC}" name="Столбец5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{3F76E758-C23A-44AD-BFC1-D189CF7FE46F}" name="Столбец6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{008F228A-6891-45AB-9EEB-2CBAB788EDB2}" name="Столбец7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{86408D9F-CDC7-4B1B-A0B0-F97944A768E5}" name="Столбец8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1191,10 +1274,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1289,7 @@
     <col min="5" max="16384" width="37.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -1228,8 +1311,11 @@
       <c r="G1" s="29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H1" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -1251,8 +1337,11 @@
       <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1274,8 +1363,11 @@
       <c r="G3" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1297,8 +1389,11 @@
       <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1320,8 +1415,11 @@
       <c r="G5" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1343,8 +1441,11 @@
       <c r="G6" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1366,8 +1467,11 @@
       <c r="G7" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1389,8 +1493,11 @@
       <c r="G8" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1412,8 +1519,11 @@
       <c r="G9" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1435,8 +1545,11 @@
       <c r="G10" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1458,8 +1571,11 @@
       <c r="G11" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1481,8 +1597,11 @@
       <c r="G12" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1504,8 +1623,11 @@
       <c r="G13" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1527,8 +1649,11 @@
       <c r="G14" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1550,8 +1675,11 @@
       <c r="G15" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -1573,8 +1701,11 @@
       <c r="G16" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1596,8 +1727,11 @@
       <c r="G17" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1619,8 +1753,11 @@
       <c r="G18" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -1642,8 +1779,11 @@
       <c r="G19" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>18</v>
       </c>
@@ -1665,8 +1805,11 @@
       <c r="G20" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>19</v>
       </c>
@@ -1688,8 +1831,11 @@
       <c r="G21" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>

--- a/Эксперементы/Таблица по заказчикам (1).xlsx
+++ b/Эксперементы/Таблица по заказчикам (1).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Project4\Documents\GitHub\TenderSense\Эксперементы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5B3227-F5F1-4A8B-8A0E-D73E393A44E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E6F03A-D467-4F05-AFA9-00AB6A194463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32835" yWindow="0" windowWidth="19755" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
+    <sheet name="slq like" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>Заказчик</t>
   </si>
@@ -342,6 +343,9 @@
   </si>
   <si>
     <t>расшифровано</t>
+  </si>
+  <si>
+    <t>customerIdOrg=57681053%3A%D0%90%D0%94%D0%9C%D0%98%D0%9D%D0%98%D0%A1%D0%A2%D0%A0%D0%90%D0%A6%D0%98%D0%AF+%D0%9F%D0%9E%D0%A1%D0%95%D0%9B%D0%95%D0%9D%D0%98%D0%AF+%D0%94%D0%95%D0%A1%D0%95%D0%9D%D0%9E%D0%92%D0%A1%D0%9A%D0%9E%D0%95zZ01483000110zZ651702zZ179661zZ5003057124zZ</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1280,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1850,4 +1854,231 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCBD914-47D7-440F-8FE6-45CEA547484C}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>7735069192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7704076129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7718016306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7716099554</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7726318029</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7729198714</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5003027994</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5003084199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5003062727</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5003042382</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5003057124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5003138447</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5003002380</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7705002602</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5000001525</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5051002044</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5003057029</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7703022730</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7707003506</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>